--- a/data/C1/1/data.xlsx
+++ b/data/C1/1/data.xlsx
@@ -115,91 +115,536 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:H21"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="S9" activeCellId="0" sqref="S9"/>
+      <selection pane="topLeft" activeCell="L16" activeCellId="0" sqref="L16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="B1" s="1" t="n">
         <v>200</v>
       </c>
       <c r="C1" s="1" t="n">
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="D1" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E1" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F1" s="1" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="G1" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H1" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="B2" s="1" t="n">
         <v>200</v>
       </c>
       <c r="C2" s="1" t="n">
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="D2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E2" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F2" s="1" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="G2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H2" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="n">
-        <v>1000</v>
+        <v>2000</v>
       </c>
       <c r="B3" s="1" t="n">
         <v>200</v>
       </c>
       <c r="C3" s="1" t="n">
-        <v>-12</v>
+        <v>-18</v>
       </c>
       <c r="D3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="E3" s="1" t="n">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="F3" s="1" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="G3" s="1" t="n">
         <v>0</v>
       </c>
       <c r="H3" s="1" t="n">
-        <v>1</v>
-      </c>
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C4" s="1" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E4" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F4" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H4" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B5" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C5" s="1" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F5" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G5" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H5" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B6" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C6" s="1" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F6" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G6" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H6" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B7" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C7" s="1" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F7" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G7" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H7" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B8" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C8" s="1" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F8" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G8" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H8" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B9" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C9" s="1" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F9" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G9" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H9" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B10" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C10" s="1" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E10" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F10" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G10" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H10" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B11" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C11" s="1" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E11" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F11" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G11" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H11" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B12" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C12" s="1" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E12" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G12" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H12" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B13" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C13" s="1" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F13" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G13" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H13" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B14" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C14" s="1" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E14" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G14" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H14" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B15" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C15" s="1" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E15" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F15" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G15" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H15" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B16" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C16" s="1" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F16" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G16" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H16" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B17" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C17" s="1" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E17" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F17" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G17" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H17" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B18" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C18" s="1" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F18" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G18" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H18" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B19" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C19" s="1" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E19" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F19" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G19" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H19" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="1" t="n">
+        <v>2000</v>
+      </c>
+      <c r="B20" s="1" t="n">
+        <v>200</v>
+      </c>
+      <c r="C20" s="1" t="n">
+        <v>-18</v>
+      </c>
+      <c r="D20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="E20" s="1" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="F20" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="G20" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="H20" s="1" t="n">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="H21" s="1"/>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
